--- a/USPSCleanUp/UploadedExcel/test.xlsx
+++ b/USPSCleanUp/UploadedExcel/test.xlsx
@@ -2,12 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\USPSCleanUpAddress\Publish\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21852" windowHeight="10032"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1New" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1old" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +23,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Sr# No#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>House No</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>MegaPeel</t>
+  </si>
+  <si>
+    <t>Closed - Lost</t>
+  </si>
+  <si>
+    <t>test address 1</t>
+  </si>
+  <si>
+    <t>6406 IVY LANE</t>
+  </si>
+  <si>
+    <t>GREENBELT</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Opportunity 563</t>
+  </si>
+  <si>
+    <t>Closed - Won</t>
+  </si>
+  <si>
+    <t>Opportunity 1199</t>
+  </si>
+  <si>
+    <t>Opportunity 1309</t>
+  </si>
+  <si>
+    <t>Opportunity 128</t>
+  </si>
+  <si>
+    <t>dmSkincare</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>6406 IVY LN</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,11 +415,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>20770</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>20770</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>20770</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>20770</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>20770</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>20770</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>20770</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>20770</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>20770</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>20770</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>20770</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>20770</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20770</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>20770</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>20770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
